--- a/Todos100gFIN.xlsx
+++ b/Todos100gFIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javip\Lab1\Proyecto-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F3093-BC17-4AE3-8F58-6959EE4FD33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877302B8-6EA5-4B37-9FA8-0FC816B420D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="865">
   <si>
     <t>Producto</t>
   </si>
@@ -2231,6 +2231,405 @@
   </si>
   <si>
     <t>Chusco 5 semillas</t>
+  </si>
+  <si>
+    <t>Whopper</t>
+  </si>
+  <si>
+    <t>BugerKing</t>
+  </si>
+  <si>
+    <t>Doble Whopper</t>
+  </si>
+  <si>
+    <t>Triple Whopper</t>
+  </si>
+  <si>
+    <t>Whopper Vegetal</t>
+  </si>
+  <si>
+    <t>Long Vegetal</t>
+  </si>
+  <si>
+    <t>Long Chicken</t>
+  </si>
+  <si>
+    <t>Steakhouse</t>
+  </si>
+  <si>
+    <t>Chicken Tendercrisp</t>
+  </si>
+  <si>
+    <t>Big King</t>
+  </si>
+  <si>
+    <t>Big King XXL</t>
+  </si>
+  <si>
+    <t>Big King Vegetal</t>
+  </si>
+  <si>
+    <t>Doble Cheeseburger</t>
+  </si>
+  <si>
+    <t>Doble Cheeseburger BBQ</t>
+  </si>
+  <si>
+    <t>Doble Cheese Bacon XXL</t>
+  </si>
+  <si>
+    <t>Whopper Jr.</t>
+  </si>
+  <si>
+    <t>Doble Texas</t>
+  </si>
+  <si>
+    <t>Hamburger</t>
+  </si>
+  <si>
+    <t>Burger sin gluten</t>
+  </si>
+  <si>
+    <t>Chicken Burger</t>
+  </si>
+  <si>
+    <t>Cheeseburger</t>
+  </si>
+  <si>
+    <t>Cheeseburger sin gluten</t>
+  </si>
+  <si>
+    <t>Bacon Cheeseburger</t>
+  </si>
+  <si>
+    <t>Bacon Chicken Cheeseburger</t>
+  </si>
+  <si>
+    <t>Crispy Chicken</t>
+  </si>
+  <si>
+    <t>Chicken Wrap</t>
+  </si>
+  <si>
+    <t>Cheeseburger Kids</t>
+  </si>
+  <si>
+    <t>The King Huevo</t>
+  </si>
+  <si>
+    <t>The King Huevo (Solo 1 Carne)</t>
+  </si>
+  <si>
+    <t>The King Bacon (1 Carne)</t>
+  </si>
+  <si>
+    <t>The King Bacon (2 Carnes)</t>
+  </si>
+  <si>
+    <t>Bacon Tendercrisp</t>
+  </si>
+  <si>
+    <t>Doble cheese salad</t>
+  </si>
+  <si>
+    <t>Fondue Burger Extra (1 carne)</t>
+  </si>
+  <si>
+    <t>Fondue Burger Extra (2 carnes)</t>
+  </si>
+  <si>
+    <t>Fondue Burger Extra Tendercrisp</t>
+  </si>
+  <si>
+    <t>Big Fish</t>
+  </si>
+  <si>
+    <t>Rebel Whopper</t>
+  </si>
+  <si>
+    <t>Rebel Whopper Carne</t>
+  </si>
+  <si>
+    <t>Alitas de pollo (x4)</t>
+  </si>
+  <si>
+    <t>Alitas de pollo (x8)</t>
+  </si>
+  <si>
+    <t>King Aros de Cebolla(x5)</t>
+  </si>
+  <si>
+    <t>King Aros de Cebolla(x7)</t>
+  </si>
+  <si>
+    <t>King Aros de Cebolla(x13)</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets (x3)</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets (x5)</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets (x6)</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets (x9)</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets (x20)</t>
+  </si>
+  <si>
+    <t>Palitos de Gouda (x5)</t>
+  </si>
+  <si>
+    <t>Palitos de Gouda (x8)</t>
+  </si>
+  <si>
+    <t>Patatas fritas pequeñas</t>
+  </si>
+  <si>
+    <t>Patatas fritas medianas</t>
+  </si>
+  <si>
+    <t>Patatas fritas grandes</t>
+  </si>
+  <si>
+    <t>Patatas fritas gigantes</t>
+  </si>
+  <si>
+    <t>Patatas supreme medianas</t>
+  </si>
+  <si>
+    <t>Patatas supreme grandes</t>
+  </si>
+  <si>
+    <t>Patatas supreme gigantes</t>
+  </si>
+  <si>
+    <t>King Delicias de Pollo (x4)</t>
+  </si>
+  <si>
+    <t>King Delicias de Pollo (x8)</t>
+  </si>
+  <si>
+    <t>Chili Cheese Bites (x6)</t>
+  </si>
+  <si>
+    <t>Chili Cheese Bites (x4)</t>
+  </si>
+  <si>
+    <t>Crujientes de pollo (x4)</t>
+  </si>
+  <si>
+    <t>Crujientes de pollo (x6)</t>
+  </si>
+  <si>
+    <t>Esencial de manzana</t>
+  </si>
+  <si>
+    <t>CocaCCola Pequeña</t>
+  </si>
+  <si>
+    <t>CocaCCola  Mediana</t>
+  </si>
+  <si>
+    <t>CocaCCola  Grande</t>
+  </si>
+  <si>
+    <t>CocaCCola  Gigante</t>
+  </si>
+  <si>
+    <t>CocaCCola Light  Pequeña</t>
+  </si>
+  <si>
+    <t>CocaCCola Light  Mediana</t>
+  </si>
+  <si>
+    <t>CocaCCola Light  Grande</t>
+  </si>
+  <si>
+    <t>CocaCCola Light  Gigante</t>
+  </si>
+  <si>
+    <t>CocaCCola Zero  Pequeña</t>
+  </si>
+  <si>
+    <t>CocaCCola Zero  Mediana</t>
+  </si>
+  <si>
+    <t>CocaCCola Zero  Grande</t>
+  </si>
+  <si>
+    <t>CocaCCola Zero  Gigante</t>
+  </si>
+  <si>
+    <t>Nestea  Pequeño</t>
+  </si>
+  <si>
+    <t>Nestea  Mediano</t>
+  </si>
+  <si>
+    <t>Nestea  Grande</t>
+  </si>
+  <si>
+    <t>Nestea  Gigante</t>
+  </si>
+  <si>
+    <t>Sprite  Pequeño</t>
+  </si>
+  <si>
+    <t>Sprite  Mediano</t>
+  </si>
+  <si>
+    <t>Sprite  Grande</t>
+  </si>
+  <si>
+    <t>Sprite  Gigante</t>
+  </si>
+  <si>
+    <t>Fanta  Naranja Pequeña</t>
+  </si>
+  <si>
+    <t>Fanta  Naranja Mediana</t>
+  </si>
+  <si>
+    <t>Fanta  Naranja Grande</t>
+  </si>
+  <si>
+    <t>Fanta  Naranja Gigante</t>
+  </si>
+  <si>
+    <t>Don Simon Tropical</t>
+  </si>
+  <si>
+    <t>Ensalada Individual</t>
+  </si>
+  <si>
+    <t>Ensalada Delight</t>
+  </si>
+  <si>
+    <t>Ensalada Delight con pollo crujiente</t>
+  </si>
+  <si>
+    <t>Ensalada con salsa césar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Fusion  OREO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Fusion  KIT KAT </t>
+  </si>
+  <si>
+    <t>King Fusion  BROWNIE</t>
+  </si>
+  <si>
+    <t>Brownie</t>
+  </si>
+  <si>
+    <t>Brownie con helado</t>
+  </si>
+  <si>
+    <t>Pancakes (x2)</t>
+  </si>
+  <si>
+    <t>Danonino  Bebedino</t>
+  </si>
+  <si>
+    <t>Danonino  Petitdino Chocolate</t>
+  </si>
+  <si>
+    <t>Danonino  Petitdino Fresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURGER KING SANDY </t>
+  </si>
+  <si>
+    <t>BURGER KING SANDY  con sirope de caramelo</t>
+  </si>
+  <si>
+    <t>BURGER KING SANDY  con sirope de chocolate</t>
+  </si>
+  <si>
+    <t>BURGER KING SANDY  con sirope de fresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarta con OREO </t>
+  </si>
+  <si>
+    <t>OREO  Shake</t>
+  </si>
+  <si>
+    <t>Choco OREO  Shake</t>
+  </si>
+  <si>
+    <t>Chocolate Blanco Golden OREO  Shake</t>
+  </si>
+  <si>
+    <t>Chocolate Shake</t>
+  </si>
+  <si>
+    <t>Fresa Shake</t>
+  </si>
+  <si>
+    <t>Vainilla Shake</t>
+  </si>
+  <si>
+    <t>Tarta de cumpleaños (500 y 1000 g.)</t>
+  </si>
+  <si>
+    <t>Muffin de chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carne Whopper </t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Rebanada de queso grande</t>
+  </si>
+  <si>
+    <t>Pepinillo</t>
+  </si>
+  <si>
+    <t>Cebolla Crispy</t>
+  </si>
+  <si>
+    <t>Cebolla</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>Lechuga</t>
+  </si>
+  <si>
+    <t>Dip Mostaza y Miel</t>
+  </si>
+  <si>
+    <t>Dip Queso</t>
+  </si>
+  <si>
+    <t>Dip Barbacoa</t>
+  </si>
+  <si>
+    <t>Dip Sour cream</t>
+  </si>
+  <si>
+    <t>Bolsa de Ketchup</t>
+  </si>
+  <si>
+    <t>Sirope de chocolate</t>
+  </si>
+  <si>
+    <t>Sirope de caramelo</t>
+  </si>
+  <si>
+    <t>Sirope de fresa</t>
   </si>
 </sst>
 </file>
@@ -2610,10 +3009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J718"/>
+  <dimension ref="A1:J855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F711" workbookViewId="0">
-      <selection activeCell="J725" sqref="A719:J725"/>
+    <sheetView tabSelected="1" topLeftCell="A861" workbookViewId="0">
+      <selection activeCell="L719" sqref="L719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25599,6 +25998,4390 @@
         <v>685</v>
       </c>
     </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>732</v>
+      </c>
+      <c r="B719" s="3">
+        <v>229.8277099784637</v>
+      </c>
+      <c r="C719" s="3">
+        <v>9.5836324479540558</v>
+      </c>
+      <c r="D719" s="3">
+        <v>18.413496051687005</v>
+      </c>
+      <c r="E719" s="3">
+        <v>4.5944005743000718</v>
+      </c>
+      <c r="F719" s="3">
+        <v>11.701363962670495</v>
+      </c>
+      <c r="G719" s="3">
+        <v>3.1227566403445794</v>
+      </c>
+      <c r="H719" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="I719" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J719" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>734</v>
+      </c>
+      <c r="B720" s="3">
+        <v>249.57579185520359</v>
+      </c>
+      <c r="C720" s="3">
+        <v>12.669683257918551</v>
+      </c>
+      <c r="D720" s="3">
+        <v>14.507918552036198</v>
+      </c>
+      <c r="E720" s="3">
+        <v>3.619909502262443</v>
+      </c>
+      <c r="F720" s="3">
+        <v>13.518099547511312</v>
+      </c>
+      <c r="G720" s="3">
+        <v>4.4117647058823524</v>
+      </c>
+      <c r="H720" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I720" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J720" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>735</v>
+      </c>
+      <c r="B721" s="3">
+        <v>262.43583761082596</v>
+      </c>
+      <c r="C721" s="3">
+        <v>14.675688287447503</v>
+      </c>
+      <c r="D721" s="3">
+        <v>11.992533831077928</v>
+      </c>
+      <c r="E721" s="3">
+        <v>3.0097993467102193</v>
+      </c>
+      <c r="F721" s="3">
+        <v>14.722351843210452</v>
+      </c>
+      <c r="G721" s="3">
+        <v>5.2496500233317773</v>
+      </c>
+      <c r="H721" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="I721" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J721" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>736</v>
+      </c>
+      <c r="B722" s="3">
+        <v>207.8006872852234</v>
+      </c>
+      <c r="C722" s="3">
+        <v>7.6288659793814437</v>
+      </c>
+      <c r="D722" s="3">
+        <v>17.663230240549829</v>
+      </c>
+      <c r="E722" s="3">
+        <v>4.398625429553265</v>
+      </c>
+      <c r="F722" s="3">
+        <v>11.305841924398626</v>
+      </c>
+      <c r="G722" s="3">
+        <v>2.7835051546391751</v>
+      </c>
+      <c r="H722" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="I722" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J722" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>737</v>
+      </c>
+      <c r="B723" s="3">
+        <v>284.61904761904765</v>
+      </c>
+      <c r="C723" s="3">
+        <v>8.0476190476190457</v>
+      </c>
+      <c r="D723" s="3">
+        <v>24.80952380952381</v>
+      </c>
+      <c r="E723" s="3">
+        <v>3.3809523809523809</v>
+      </c>
+      <c r="F723" s="3">
+        <v>15.857142857142854</v>
+      </c>
+      <c r="G723" s="3">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="H723" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="I723" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J723" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>738</v>
+      </c>
+      <c r="B724" s="3">
+        <v>271.5695067264574</v>
+      </c>
+      <c r="C724" s="3">
+        <v>11.210762331838565</v>
+      </c>
+      <c r="D724" s="3">
+        <v>21.479820627802692</v>
+      </c>
+      <c r="E724" s="3">
+        <v>2.7802690582959642</v>
+      </c>
+      <c r="F724" s="3">
+        <v>15.336322869955159</v>
+      </c>
+      <c r="G724" s="3">
+        <v>2.1524663677130045</v>
+      </c>
+      <c r="H724" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="I724" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J724" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>739</v>
+      </c>
+      <c r="B725" s="3">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="C725" s="3">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="D725" s="3">
+        <v>22</v>
+      </c>
+      <c r="E725" s="3">
+        <v>5.2666666666666666</v>
+      </c>
+      <c r="F725" s="3">
+        <v>16.366666666666667</v>
+      </c>
+      <c r="G725" s="3">
+        <v>6.3666666666666671</v>
+      </c>
+      <c r="H725" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="I725" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J725" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>740</v>
+      </c>
+      <c r="B726" s="3">
+        <v>239.96336996336996</v>
+      </c>
+      <c r="C726" s="3">
+        <v>10.293040293040294</v>
+      </c>
+      <c r="D726" s="3">
+        <v>22.234432234432234</v>
+      </c>
+      <c r="E726" s="3">
+        <v>2.4175824175824174</v>
+      </c>
+      <c r="F726" s="3">
+        <v>11.83150183150183</v>
+      </c>
+      <c r="G726" s="3">
+        <v>1.9413919413919414</v>
+      </c>
+      <c r="H726" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="I726" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J726" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A727" t="s">
+        <v>741</v>
+      </c>
+      <c r="B727" s="3">
+        <v>234.40428380187413</v>
+      </c>
+      <c r="C727" s="3">
+        <v>11.06648817492191</v>
+      </c>
+      <c r="D727" s="3">
+        <v>20.03569834895136</v>
+      </c>
+      <c r="E727" s="3">
+        <v>5.0423917893797414</v>
+      </c>
+      <c r="F727" s="3">
+        <v>12.003569834895137</v>
+      </c>
+      <c r="G727" s="3">
+        <v>3.8821954484605081</v>
+      </c>
+      <c r="H727" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I727" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J727" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A728" t="s">
+        <v>742</v>
+      </c>
+      <c r="B728" s="3">
+        <v>280.74534161490686</v>
+      </c>
+      <c r="C728" s="3">
+        <v>15.160926030491249</v>
+      </c>
+      <c r="D728" s="3">
+        <v>15.104460756634671</v>
+      </c>
+      <c r="E728" s="3">
+        <v>3.839638622247318</v>
+      </c>
+      <c r="F728" s="3">
+        <v>15.527950310559007</v>
+      </c>
+      <c r="G728" s="3">
+        <v>6.5217391304347831</v>
+      </c>
+      <c r="H728" s="3">
+        <v>1.2755505364201016</v>
+      </c>
+      <c r="I728" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J728" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A729" t="s">
+        <v>743</v>
+      </c>
+      <c r="B729" s="3">
+        <v>225</v>
+      </c>
+      <c r="C729" s="3">
+        <v>11.160714285714286</v>
+      </c>
+      <c r="D729" s="3">
+        <v>19.196428571428573</v>
+      </c>
+      <c r="E729" s="3">
+        <v>4.9107142857142856</v>
+      </c>
+      <c r="F729" s="3">
+        <v>11.607142857142858</v>
+      </c>
+      <c r="G729" s="3">
+        <v>3.125</v>
+      </c>
+      <c r="H729" s="3">
+        <v>1.3392857142857142</v>
+      </c>
+      <c r="I729" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J729" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A730" t="s">
+        <v>744</v>
+      </c>
+      <c r="B730" s="3">
+        <v>261.2923462986198</v>
+      </c>
+      <c r="C730" s="3">
+        <v>15.244667503136762</v>
+      </c>
+      <c r="D730" s="3">
+        <v>19.698870765370138</v>
+      </c>
+      <c r="E730" s="3">
+        <v>5.2070263488080304</v>
+      </c>
+      <c r="F730" s="3">
+        <v>13.174404015056462</v>
+      </c>
+      <c r="G730" s="3">
+        <v>6.1480552070263492</v>
+      </c>
+      <c r="H730" s="3">
+        <v>1.5106649937264742</v>
+      </c>
+      <c r="I730" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J730" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A731" t="s">
+        <v>745</v>
+      </c>
+      <c r="B731" s="3">
+        <v>266.68797953964196</v>
+      </c>
+      <c r="C731" s="3">
+        <v>15.40920716112532</v>
+      </c>
+      <c r="D731" s="3">
+        <v>20.588235294117649</v>
+      </c>
+      <c r="E731" s="3">
+        <v>5.562659846547314</v>
+      </c>
+      <c r="F731" s="3">
+        <v>13.363171355498721</v>
+      </c>
+      <c r="G731" s="3">
+        <v>6.2659846547314579</v>
+      </c>
+      <c r="H731" s="3">
+        <v>1.4475703324808182</v>
+      </c>
+      <c r="I731" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J731" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A732" t="s">
+        <v>746</v>
+      </c>
+      <c r="B732" s="3">
+        <v>290.82733812949641</v>
+      </c>
+      <c r="C732" s="3">
+        <v>17.53597122302158</v>
+      </c>
+      <c r="D732" s="3">
+        <v>15.707434052757792</v>
+      </c>
+      <c r="E732" s="3">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="F732" s="3">
+        <v>15.1378896882494</v>
+      </c>
+      <c r="G732" s="3">
+        <v>7.1043165467625897</v>
+      </c>
+      <c r="H732" s="3">
+        <v>1.4652278177458034</v>
+      </c>
+      <c r="I732" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J732" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A733" t="s">
+        <v>747</v>
+      </c>
+      <c r="B733" s="3">
+        <v>222.76879831342234</v>
+      </c>
+      <c r="C733" s="3">
+        <v>8.92480674631061</v>
+      </c>
+      <c r="D733" s="3">
+        <v>21.503865073787772</v>
+      </c>
+      <c r="E733" s="3">
+        <v>5.2705551651440619</v>
+      </c>
+      <c r="F733" s="3">
+        <v>11.033028812368235</v>
+      </c>
+      <c r="G733" s="3">
+        <v>2.5298664792691494</v>
+      </c>
+      <c r="H733" s="3">
+        <v>0.90723822909346441</v>
+      </c>
+      <c r="I733" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J733" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A734" t="s">
+        <v>748</v>
+      </c>
+      <c r="B734" s="3">
+        <v>275.4775107825015</v>
+      </c>
+      <c r="C734" s="3">
+        <v>14.171287738755391</v>
+      </c>
+      <c r="D734" s="3">
+        <v>24.645717806531113</v>
+      </c>
+      <c r="E734" s="3">
+        <v>6.654343807763401</v>
+      </c>
+      <c r="F734" s="3">
+        <v>12.692544670363523</v>
+      </c>
+      <c r="G734" s="3">
+        <v>5.175600739371534</v>
+      </c>
+      <c r="H734" s="3">
+        <v>1.0899568699938385</v>
+      </c>
+      <c r="I734" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J734" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A735" t="s">
+        <v>749</v>
+      </c>
+      <c r="B735" s="3">
+        <v>240.86021505376345</v>
+      </c>
+      <c r="C735" s="3">
+        <v>12.121212121212121</v>
+      </c>
+      <c r="D735" s="3">
+        <v>28.250244379276637</v>
+      </c>
+      <c r="E735" s="3">
+        <v>6.3538611925708706</v>
+      </c>
+      <c r="F735" s="3">
+        <v>8.4066471163245353</v>
+      </c>
+      <c r="G735" s="3">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="H735" s="3">
+        <v>1.1495601173020527</v>
+      </c>
+      <c r="I735" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J735" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A736" t="s">
+        <v>750</v>
+      </c>
+      <c r="B736" s="3">
+        <v>318.89103803997421</v>
+      </c>
+      <c r="C736" s="3">
+        <v>13.217279174725984</v>
+      </c>
+      <c r="D736" s="3">
+        <v>27.724049000644747</v>
+      </c>
+      <c r="E736" s="3">
+        <v>3.2237266279819474</v>
+      </c>
+      <c r="F736" s="3">
+        <v>14.377820760799485</v>
+      </c>
+      <c r="G736" s="3">
+        <v>5.222437137330755</v>
+      </c>
+      <c r="H736" s="3">
+        <v>0.69825918762088979</v>
+      </c>
+      <c r="I736" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J736" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>751</v>
+      </c>
+      <c r="B737" s="3">
+        <v>289.04411764705884</v>
+      </c>
+      <c r="C737" s="3">
+        <v>8.0882352941176467</v>
+      </c>
+      <c r="D737" s="3">
+        <v>29.558823529411768</v>
+      </c>
+      <c r="E737" s="3">
+        <v>4.117647058823529</v>
+      </c>
+      <c r="F737" s="3">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="G737" s="3">
+        <v>3.1617647058823528</v>
+      </c>
+      <c r="H737" s="3">
+        <v>1.3205882352941176</v>
+      </c>
+      <c r="I737" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J737" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>752</v>
+      </c>
+      <c r="B738" s="3">
+        <v>248.54202401372214</v>
+      </c>
+      <c r="C738" s="3">
+        <v>12.60720411663808</v>
+      </c>
+      <c r="D738" s="3">
+        <v>26.072041166380789</v>
+      </c>
+      <c r="E738" s="3">
+        <v>6.5180102915951972</v>
+      </c>
+      <c r="F738" s="3">
+        <v>10.034305317324186</v>
+      </c>
+      <c r="G738" s="3">
+        <v>4.2881646655231567</v>
+      </c>
+      <c r="H738" s="3">
+        <v>1.5274442538593482</v>
+      </c>
+      <c r="I738" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J738" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>753</v>
+      </c>
+      <c r="B739" s="3">
+        <v>321.20200333889824</v>
+      </c>
+      <c r="C739" s="3">
+        <v>13.912075681691709</v>
+      </c>
+      <c r="D739" s="3">
+        <v>24.986087924318308</v>
+      </c>
+      <c r="E739" s="3">
+        <v>3.5058430717863107</v>
+      </c>
+      <c r="F739" s="3">
+        <v>15.859766277128548</v>
+      </c>
+      <c r="G739" s="3">
+        <v>6.6777963272120209</v>
+      </c>
+      <c r="H739" s="3">
+        <v>1.2353923205342239</v>
+      </c>
+      <c r="I739" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J739" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>754</v>
+      </c>
+      <c r="B740" s="3">
+        <v>256.36215334420882</v>
+      </c>
+      <c r="C740" s="3">
+        <v>13.866231647634585</v>
+      </c>
+      <c r="D740" s="3">
+        <v>24.959216965742254</v>
+      </c>
+      <c r="E740" s="3">
+        <v>6.2805872756933114</v>
+      </c>
+      <c r="F740" s="3">
+        <v>10.929853181076673</v>
+      </c>
+      <c r="G740" s="3">
+        <v>4.4861337683523654</v>
+      </c>
+      <c r="H740" s="3">
+        <v>1.6288743882544863</v>
+      </c>
+      <c r="I740" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J740" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>755</v>
+      </c>
+      <c r="B741" s="3">
+        <v>297.40764744005185</v>
+      </c>
+      <c r="C741" s="3">
+        <v>10.110174983797796</v>
+      </c>
+      <c r="D741" s="3">
+        <v>26.766040181464678</v>
+      </c>
+      <c r="E741" s="3">
+        <v>4.018146467919637</v>
+      </c>
+      <c r="F741" s="3">
+        <v>16.267012313674659</v>
+      </c>
+      <c r="G741" s="3">
+        <v>4.3421905379131562</v>
+      </c>
+      <c r="H741" s="3">
+        <v>1.6727154893065457</v>
+      </c>
+      <c r="I741" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J741" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>756</v>
+      </c>
+      <c r="B742" s="3">
+        <v>273.01587301587301</v>
+      </c>
+      <c r="C742" s="3">
+        <v>8.6772486772486754</v>
+      </c>
+      <c r="D742" s="3">
+        <v>22.328042328042329</v>
+      </c>
+      <c r="E742" s="3">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F742" s="3">
+        <v>16.137566137566136</v>
+      </c>
+      <c r="G742" s="3">
+        <v>2.9629629629629628</v>
+      </c>
+      <c r="H742" s="3">
+        <v>0.95873015873015877</v>
+      </c>
+      <c r="I742" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J742" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>757</v>
+      </c>
+      <c r="B743" s="3">
+        <v>255.04061156235065</v>
+      </c>
+      <c r="C743" s="3">
+        <v>9.2212135690396551</v>
+      </c>
+      <c r="D743" s="3">
+        <v>21.882465360726229</v>
+      </c>
+      <c r="E743" s="3">
+        <v>1.5289058767319637</v>
+      </c>
+      <c r="F743" s="3">
+        <v>14.142379359770663</v>
+      </c>
+      <c r="G743" s="3">
+        <v>4.4911610129001431</v>
+      </c>
+      <c r="H743" s="3">
+        <v>0.96655518394648832</v>
+      </c>
+      <c r="I743" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J743" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>758</v>
+      </c>
+      <c r="B744" s="3">
+        <v>273.60308285163779</v>
+      </c>
+      <c r="C744" s="3">
+        <v>13.96917148362235</v>
+      </c>
+      <c r="D744" s="3">
+        <v>28.516377649325626</v>
+      </c>
+      <c r="E744" s="3">
+        <v>6.7437379576107901</v>
+      </c>
+      <c r="F744" s="3">
+        <v>11.078998073217727</v>
+      </c>
+      <c r="G744" s="3">
+        <v>4.8169556840077075</v>
+      </c>
+      <c r="H744" s="3">
+        <v>1.323699421965318</v>
+      </c>
+      <c r="I744" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J744" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>759</v>
+      </c>
+      <c r="B745" s="3">
+        <v>277.44416873449126</v>
+      </c>
+      <c r="C745" s="3">
+        <v>15.285359801488834</v>
+      </c>
+      <c r="D745" s="3">
+        <v>14.491315136476427</v>
+      </c>
+      <c r="E745" s="3">
+        <v>3.2009925558312653</v>
+      </c>
+      <c r="F745" s="3">
+        <v>15.583126550868487</v>
+      </c>
+      <c r="G745" s="3">
+        <v>6.0545905707196033</v>
+      </c>
+      <c r="H745" s="3">
+        <v>0.92630272952853598</v>
+      </c>
+      <c r="I745" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J745" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>760</v>
+      </c>
+      <c r="B746" s="3">
+        <v>267.01219512195121</v>
+      </c>
+      <c r="C746" s="3">
+        <v>13.262195121951219</v>
+      </c>
+      <c r="D746" s="3">
+        <v>17.774390243902438</v>
+      </c>
+      <c r="E746" s="3">
+        <v>3.9024390243902438</v>
+      </c>
+      <c r="F746" s="3">
+        <v>14.481707317073171</v>
+      </c>
+      <c r="G746" s="3">
+        <v>5.3353658536585362</v>
+      </c>
+      <c r="H746" s="3">
+        <v>1.0945121951219512</v>
+      </c>
+      <c r="I746" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J746" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>761</v>
+      </c>
+      <c r="B747" s="3">
+        <v>277.68529528339275</v>
+      </c>
+      <c r="C747" s="3">
+        <v>14.546175188267936</v>
+      </c>
+      <c r="D747" s="3">
+        <v>19.46095917558462</v>
+      </c>
+      <c r="E747" s="3">
+        <v>2.7744748315497421</v>
+      </c>
+      <c r="F747" s="3">
+        <v>13.832738803012287</v>
+      </c>
+      <c r="G747" s="3">
+        <v>5.2318668252080851</v>
+      </c>
+      <c r="H747" s="3">
+        <v>1.2663495838287753</v>
+      </c>
+      <c r="I747" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J747" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>762</v>
+      </c>
+      <c r="B748" s="3">
+        <v>294.80938416422288</v>
+      </c>
+      <c r="C748" s="3">
+        <v>17.712609970674485</v>
+      </c>
+      <c r="D748" s="3">
+        <v>14.69208211143695</v>
+      </c>
+      <c r="E748" s="3">
+        <v>2.2580645161290325</v>
+      </c>
+      <c r="F748" s="3">
+        <v>15.92375366568915</v>
+      </c>
+      <c r="G748" s="3">
+        <v>6.3343108504398824</v>
+      </c>
+      <c r="H748" s="3">
+        <v>1.13841642228739</v>
+      </c>
+      <c r="I748" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J748" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>763</v>
+      </c>
+      <c r="B749" s="3">
+        <v>241.08781127129751</v>
+      </c>
+      <c r="C749" s="3">
+        <v>13.269986893840105</v>
+      </c>
+      <c r="D749" s="3">
+        <v>21.363040629095675</v>
+      </c>
+      <c r="E749" s="3">
+        <v>2.6212319790301444</v>
+      </c>
+      <c r="F749" s="3">
+        <v>10.878112712975101</v>
+      </c>
+      <c r="G749" s="3">
+        <v>3.4076015727391877</v>
+      </c>
+      <c r="H749" s="3">
+        <v>1.717234600262123</v>
+      </c>
+      <c r="I749" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J749" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>764</v>
+      </c>
+      <c r="B750" s="3">
+        <v>257.7581120943953</v>
+      </c>
+      <c r="C750" s="3">
+        <v>12.979351032448378</v>
+      </c>
+      <c r="D750" s="3">
+        <v>18.171091445427727</v>
+      </c>
+      <c r="E750" s="3">
+        <v>4.4837758112094397</v>
+      </c>
+      <c r="F750" s="3">
+        <v>14.631268436578171</v>
+      </c>
+      <c r="G750" s="3">
+        <v>4.896755162241889</v>
+      </c>
+      <c r="H750" s="3">
+        <v>0.93982300884955761</v>
+      </c>
+      <c r="I750" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J750" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>765</v>
+      </c>
+      <c r="B751" s="3">
+        <v>234.52420701168614</v>
+      </c>
+      <c r="C751" s="3">
+        <v>13.32220367278798</v>
+      </c>
+      <c r="D751" s="3">
+        <v>15.659432387312187</v>
+      </c>
+      <c r="E751" s="3">
+        <v>2.9382303839732891</v>
+      </c>
+      <c r="F751" s="3">
+        <v>11.686143572621035</v>
+      </c>
+      <c r="G751" s="3">
+        <v>6.2103505843071796</v>
+      </c>
+      <c r="H751" s="3">
+        <v>1.4023372287145242</v>
+      </c>
+      <c r="I751" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J751" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>766</v>
+      </c>
+      <c r="B752" s="3">
+        <v>258.6352357320099</v>
+      </c>
+      <c r="C752" s="3">
+        <v>15.955334987593051</v>
+      </c>
+      <c r="D752" s="3">
+        <v>11.861042183622828</v>
+      </c>
+      <c r="E752" s="3">
+        <v>2.4317617866004966</v>
+      </c>
+      <c r="F752" s="3">
+        <v>14.367245657568239</v>
+      </c>
+      <c r="G752" s="3">
+        <v>7.5682382133995034</v>
+      </c>
+      <c r="H752" s="3">
+        <v>1.2801488833746897</v>
+      </c>
+      <c r="I752" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J752" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>767</v>
+      </c>
+      <c r="B753" s="3">
+        <v>209.27922814982975</v>
+      </c>
+      <c r="C753" s="3">
+        <v>12.400681044267879</v>
+      </c>
+      <c r="D753" s="3">
+        <v>17.905788876276958</v>
+      </c>
+      <c r="E753" s="3">
+        <v>2.7809307604994329</v>
+      </c>
+      <c r="F753" s="3">
+        <v>9.4494892167990905</v>
+      </c>
+      <c r="G753" s="3">
+        <v>4.4835414301929628</v>
+      </c>
+      <c r="H753" s="3">
+        <v>1.772417707150965</v>
+      </c>
+      <c r="I753" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J753" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>768</v>
+      </c>
+      <c r="B754" s="3">
+        <v>249.34065934065933</v>
+      </c>
+      <c r="C754" s="3">
+        <v>9.2307692307692299</v>
+      </c>
+      <c r="D754" s="3">
+        <v>23.516483516483518</v>
+      </c>
+      <c r="E754" s="3">
+        <v>3.1868131868131866</v>
+      </c>
+      <c r="F754" s="3">
+        <v>12.747252747252746</v>
+      </c>
+      <c r="G754" s="3">
+        <v>2.802197802197802</v>
+      </c>
+      <c r="H754" s="3">
+        <v>1.1307692307692307</v>
+      </c>
+      <c r="I754" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J754" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>769</v>
+      </c>
+      <c r="B755" s="3">
+        <v>207.65796703296706</v>
+      </c>
+      <c r="C755" s="3">
+        <v>7.6236263736263741</v>
+      </c>
+      <c r="D755" s="3">
+        <v>17.651098901098901</v>
+      </c>
+      <c r="E755" s="3">
+        <v>4.395604395604396</v>
+      </c>
+      <c r="F755" s="3">
+        <v>11.298076923076923</v>
+      </c>
+      <c r="G755" s="3">
+        <v>2.7815934065934065</v>
+      </c>
+      <c r="H755" s="3">
+        <v>0.97527472527472536</v>
+      </c>
+      <c r="I755" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J755" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>685</v>
+      </c>
+      <c r="B756" s="3">
+        <v>268</v>
+      </c>
+      <c r="C756" s="3">
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="D756" s="3">
+        <v>49</v>
+      </c>
+      <c r="E756" s="3">
+        <v>8</v>
+      </c>
+      <c r="F756" s="3">
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="G756" s="3">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H756" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="I756" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J756" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>141</v>
+      </c>
+      <c r="B757" s="3">
+        <v>597.14285714285711</v>
+      </c>
+      <c r="C757" s="3">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="D757" s="3">
+        <v>1.9047619047619047</v>
+      </c>
+      <c r="E757" s="3">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F757" s="3">
+        <v>65.238095238095241</v>
+      </c>
+      <c r="G757" s="3">
+        <v>5.238095238095239</v>
+      </c>
+      <c r="H757" s="3">
+        <v>1.7523809523809522</v>
+      </c>
+      <c r="I757" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J757" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>770</v>
+      </c>
+      <c r="B758" s="3">
+        <v>236.02272727272728</v>
+      </c>
+      <c r="C758" s="3">
+        <v>15.454545454545455</v>
+      </c>
+      <c r="D758" s="3">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E758" s="3">
+        <v>0.34090909090909088</v>
+      </c>
+      <c r="F758" s="3">
+        <v>17.613636363636363</v>
+      </c>
+      <c r="G758" s="3">
+        <v>7.0454545454545459</v>
+      </c>
+      <c r="H758" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="I758" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J758" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>771</v>
+      </c>
+      <c r="B759" s="3">
+        <v>230.98684210526315</v>
+      </c>
+      <c r="C759" s="3">
+        <v>21.381578947368421</v>
+      </c>
+      <c r="D759" s="3">
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="E759" s="3">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="F759" s="3">
+        <v>14.868421052631579</v>
+      </c>
+      <c r="G759" s="3">
+        <v>4.4078947368421053</v>
+      </c>
+      <c r="H759" s="3">
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="I759" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J759" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>772</v>
+      </c>
+      <c r="B760" s="3">
+        <v>230.98684210526315</v>
+      </c>
+      <c r="C760" s="3">
+        <v>21.414473684210524</v>
+      </c>
+      <c r="D760" s="3">
+        <v>2.5986842105263159</v>
+      </c>
+      <c r="E760" s="3">
+        <v>0.49342105263157893</v>
+      </c>
+      <c r="F760" s="3">
+        <v>14.901315789473685</v>
+      </c>
+      <c r="G760" s="3">
+        <v>4.4078947368421053</v>
+      </c>
+      <c r="H760" s="3">
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="I760" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J760" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>773</v>
+      </c>
+      <c r="B761" s="3">
+        <v>282.08695652173913</v>
+      </c>
+      <c r="C761" s="3">
+        <v>4.6956521739130439</v>
+      </c>
+      <c r="D761" s="3">
+        <v>33.217391304347828</v>
+      </c>
+      <c r="E761" s="3">
+        <v>8.8695652173913029</v>
+      </c>
+      <c r="F761" s="3">
+        <v>11.478260869565217</v>
+      </c>
+      <c r="G761" s="3">
+        <v>2.2608695652173911</v>
+      </c>
+      <c r="H761" s="3">
+        <v>0.89565217391304353</v>
+      </c>
+      <c r="I761" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J761" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>774</v>
+      </c>
+      <c r="B762" s="3">
+        <v>281.98757763975158</v>
+      </c>
+      <c r="C762" s="3">
+        <v>4.7204968944099379</v>
+      </c>
+      <c r="D762" s="3">
+        <v>33.29192546583851</v>
+      </c>
+      <c r="E762" s="3">
+        <v>8.9440993788819867</v>
+      </c>
+      <c r="F762" s="3">
+        <v>11.552795031055902</v>
+      </c>
+      <c r="G762" s="3">
+        <v>2.2360248447204967</v>
+      </c>
+      <c r="H762" s="3">
+        <v>0.89440993788819878</v>
+      </c>
+      <c r="I762" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J762" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>775</v>
+      </c>
+      <c r="B763" s="3">
+        <v>282.00668896321071</v>
+      </c>
+      <c r="C763" s="3">
+        <v>4.7491638795986626</v>
+      </c>
+      <c r="D763" s="3">
+        <v>33.31103678929766</v>
+      </c>
+      <c r="E763" s="3">
+        <v>8.896321070234114</v>
+      </c>
+      <c r="F763" s="3">
+        <v>11.505016722408026</v>
+      </c>
+      <c r="G763" s="3">
+        <v>2.2742474916387958</v>
+      </c>
+      <c r="H763" s="3">
+        <v>0.89498327759197327</v>
+      </c>
+      <c r="I763" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J763" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>776</v>
+      </c>
+      <c r="B764" s="3">
+        <v>241.9607843137255</v>
+      </c>
+      <c r="C764" s="3">
+        <v>11.96078431372549</v>
+      </c>
+      <c r="D764" s="3">
+        <v>20.980392156862745</v>
+      </c>
+      <c r="E764" s="3">
+        <v>0.78431372549019607</v>
+      </c>
+      <c r="F764" s="3">
+        <v>11.96078431372549</v>
+      </c>
+      <c r="G764" s="3">
+        <v>2.1568627450980395</v>
+      </c>
+      <c r="H764" s="3">
+        <v>1.1745098039215687</v>
+      </c>
+      <c r="I764" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J764" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>777</v>
+      </c>
+      <c r="B765" s="3">
+        <v>242</v>
+      </c>
+      <c r="C765" s="3">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="D765" s="3">
+        <v>21.058823529411761</v>
+      </c>
+      <c r="E765" s="3">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="F765" s="3">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="G765" s="3">
+        <v>2.1176470588235294</v>
+      </c>
+      <c r="H765" s="3">
+        <v>1.1752941176470588</v>
+      </c>
+      <c r="I765" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J765" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>778</v>
+      </c>
+      <c r="B766" s="3">
+        <v>241.9607843137255</v>
+      </c>
+      <c r="C766" s="3">
+        <v>11.96078431372549</v>
+      </c>
+      <c r="D766" s="3">
+        <v>20.980392156862745</v>
+      </c>
+      <c r="E766" s="3">
+        <v>0.68627450980392157</v>
+      </c>
+      <c r="F766" s="3">
+        <v>11.96078431372549</v>
+      </c>
+      <c r="G766" s="3">
+        <v>2.0588235294117645</v>
+      </c>
+      <c r="H766" s="3">
+        <v>1.1754901960784314</v>
+      </c>
+      <c r="I766" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J766" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>779</v>
+      </c>
+      <c r="B767" s="3">
+        <v>242.02614379084969</v>
+      </c>
+      <c r="C767" s="3">
+        <v>12.026143790849671</v>
+      </c>
+      <c r="D767" s="3">
+        <v>20.980392156862745</v>
+      </c>
+      <c r="E767" s="3">
+        <v>0.71895424836601318</v>
+      </c>
+      <c r="F767" s="3">
+        <v>12.026143790849671</v>
+      </c>
+      <c r="G767" s="3">
+        <v>2.0915032679738563</v>
+      </c>
+      <c r="H767" s="3">
+        <v>1.1751633986928105</v>
+      </c>
+      <c r="I767" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J767" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>780</v>
+      </c>
+      <c r="B768" s="3">
+        <v>242</v>
+      </c>
+      <c r="C768" s="3">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="D768" s="3">
+        <v>21.000000000000004</v>
+      </c>
+      <c r="E768" s="3">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="F768" s="3">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="G768" s="3">
+        <v>2.0882352941176472</v>
+      </c>
+      <c r="H768" s="3">
+        <v>1.175</v>
+      </c>
+      <c r="I768" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J768" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>781</v>
+      </c>
+      <c r="B769" s="3">
+        <v>375.05050505050502</v>
+      </c>
+      <c r="C769" s="3">
+        <v>14.04040404040404</v>
+      </c>
+      <c r="D769" s="3">
+        <v>30</v>
+      </c>
+      <c r="E769" s="3">
+        <v>1.3131313131313131</v>
+      </c>
+      <c r="F769" s="3">
+        <v>22.020202020202021</v>
+      </c>
+      <c r="G769" s="3">
+        <v>10</v>
+      </c>
+      <c r="H769" s="3">
+        <v>1.6252525252525254</v>
+      </c>
+      <c r="I769" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J769" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>782</v>
+      </c>
+      <c r="B770" s="3">
+        <v>375</v>
+      </c>
+      <c r="C770" s="3">
+        <v>14.015151515151514</v>
+      </c>
+      <c r="D770" s="3">
+        <v>29.987373737373737</v>
+      </c>
+      <c r="E770" s="3">
+        <v>1.3888888888888891</v>
+      </c>
+      <c r="F770" s="3">
+        <v>21.969696969696965</v>
+      </c>
+      <c r="G770" s="3">
+        <v>9.974747474747474</v>
+      </c>
+      <c r="H770" s="3">
+        <v>1.6249999999999998</v>
+      </c>
+      <c r="I770" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J770" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>783</v>
+      </c>
+      <c r="B771" s="3">
+        <v>245</v>
+      </c>
+      <c r="C771" s="3">
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="D771" s="3">
+        <v>64.222222222222229</v>
+      </c>
+      <c r="E771" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F771" s="3">
+        <v>9.8888888888888893</v>
+      </c>
+      <c r="G771" s="3">
+        <v>3</v>
+      </c>
+      <c r="H771" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I771" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J771" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>784</v>
+      </c>
+      <c r="B772" s="3">
+        <v>245</v>
+      </c>
+      <c r="C772" s="3">
+        <v>3.3620689655172415</v>
+      </c>
+      <c r="D772" s="3">
+        <v>64.224137931034477</v>
+      </c>
+      <c r="E772" s="3">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="F772" s="3">
+        <v>9.9137931034482758</v>
+      </c>
+      <c r="G772" s="3">
+        <v>3.0172413793103448</v>
+      </c>
+      <c r="H772" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I772" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J772" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>785</v>
+      </c>
+      <c r="B773" s="3">
+        <v>245.03144654088049</v>
+      </c>
+      <c r="C773" s="3">
+        <v>3.3962264150943398</v>
+      </c>
+      <c r="D773" s="3">
+        <v>64.213836477987428</v>
+      </c>
+      <c r="E773" s="3">
+        <v>0.12578616352201258</v>
+      </c>
+      <c r="F773" s="3">
+        <v>9.8742138364779866</v>
+      </c>
+      <c r="G773" s="3">
+        <v>3.0188679245283021</v>
+      </c>
+      <c r="H773" s="3">
+        <v>0.65031446540880511</v>
+      </c>
+      <c r="I773" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J773" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>786</v>
+      </c>
+      <c r="B774" s="3">
+        <v>245</v>
+      </c>
+      <c r="C774" s="3">
+        <v>3.4117647058823528</v>
+      </c>
+      <c r="D774" s="3">
+        <v>64.17647058823529</v>
+      </c>
+      <c r="E774" s="3">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="F774" s="3">
+        <v>9.882352941176471</v>
+      </c>
+      <c r="G774" s="3">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="H774" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I774" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J774" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>787</v>
+      </c>
+      <c r="B775" s="3">
+        <v>197</v>
+      </c>
+      <c r="C775" s="3">
+        <v>2.7826086956521738</v>
+      </c>
+      <c r="D775" s="3">
+        <v>24.217391304347824</v>
+      </c>
+      <c r="E775" s="3">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="F775" s="3">
+        <v>8.6086956521739122</v>
+      </c>
+      <c r="G775" s="3">
+        <v>1.6956521739130435</v>
+      </c>
+      <c r="H775" s="3">
+        <v>1.0230434782608697</v>
+      </c>
+      <c r="I775" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J775" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>788</v>
+      </c>
+      <c r="B776" s="3">
+        <v>197</v>
+      </c>
+      <c r="C776" s="3">
+        <v>2.7894736842105261</v>
+      </c>
+      <c r="D776" s="3">
+        <v>24.210526315789473</v>
+      </c>
+      <c r="E776" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F776" s="3">
+        <v>8.6052631578947381</v>
+      </c>
+      <c r="G776" s="3">
+        <v>1.7105263157894737</v>
+      </c>
+      <c r="H776" s="3">
+        <v>1.023157894736842</v>
+      </c>
+      <c r="I776" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J776" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>789</v>
+      </c>
+      <c r="B777" s="3">
+        <v>197</v>
+      </c>
+      <c r="C777" s="3">
+        <v>2.8095238095238093</v>
+      </c>
+      <c r="D777" s="3">
+        <v>24.19047619047619</v>
+      </c>
+      <c r="E777" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F777" s="3">
+        <v>8.5952380952380949</v>
+      </c>
+      <c r="G777" s="3">
+        <v>1.6904761904761905</v>
+      </c>
+      <c r="H777" s="3">
+        <v>1.0233333333333334</v>
+      </c>
+      <c r="I777" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J777" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>790</v>
+      </c>
+      <c r="B778" s="3">
+        <v>236.02941176470588</v>
+      </c>
+      <c r="C778" s="3">
+        <v>16.029411764705884</v>
+      </c>
+      <c r="D778" s="3">
+        <v>15.588235294117647</v>
+      </c>
+      <c r="E778" s="3">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F778" s="3">
+        <v>11.911764705882353</v>
+      </c>
+      <c r="G778" s="3">
+        <v>3.3823529411764701</v>
+      </c>
+      <c r="H778" s="3">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="I778" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J778" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>791</v>
+      </c>
+      <c r="B779" s="3">
+        <v>236.02941176470588</v>
+      </c>
+      <c r="C779" s="3">
+        <v>16.029411764705884</v>
+      </c>
+      <c r="D779" s="3">
+        <v>15.588235294117647</v>
+      </c>
+      <c r="E779" s="3">
+        <v>0.22058823529411764</v>
+      </c>
+      <c r="F779" s="3">
+        <v>11.911764705882353</v>
+      </c>
+      <c r="G779" s="3">
+        <v>3.3088235294117645</v>
+      </c>
+      <c r="H779" s="3">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="I779" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J779" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>792</v>
+      </c>
+      <c r="B780" s="3">
+        <v>305.04761904761904</v>
+      </c>
+      <c r="C780" s="3">
+        <v>9.0476190476190474</v>
+      </c>
+      <c r="D780" s="3">
+        <v>32.190476190476183</v>
+      </c>
+      <c r="E780" s="3">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F780" s="3">
+        <v>17.047619047619044</v>
+      </c>
+      <c r="G780" s="3">
+        <v>7.5238095238095237</v>
+      </c>
+      <c r="H780" s="3">
+        <v>2</v>
+      </c>
+      <c r="I780" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J780" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>793</v>
+      </c>
+      <c r="B781" s="3">
+        <v>305</v>
+      </c>
+      <c r="C781" s="3">
+        <v>9</v>
+      </c>
+      <c r="D781" s="3">
+        <v>32.142857142857146</v>
+      </c>
+      <c r="E781" s="3">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F781" s="3">
+        <v>17</v>
+      </c>
+      <c r="G781" s="3">
+        <v>7.5714285714285712</v>
+      </c>
+      <c r="H781" s="3">
+        <v>2</v>
+      </c>
+      <c r="I781" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J781" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>794</v>
+      </c>
+      <c r="B782" s="3">
+        <v>236.3125</v>
+      </c>
+      <c r="C782" s="3">
+        <v>16</v>
+      </c>
+      <c r="D782" s="3">
+        <v>15.625</v>
+      </c>
+      <c r="E782" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="F782" s="3">
+        <v>11.875</v>
+      </c>
+      <c r="G782" s="3">
+        <v>3.3125</v>
+      </c>
+      <c r="H782" s="3">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="I782" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J782" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>795</v>
+      </c>
+      <c r="B783" s="3">
+        <v>244</v>
+      </c>
+      <c r="C783" s="3">
+        <v>14.679245283018869</v>
+      </c>
+      <c r="D783" s="3">
+        <v>15.547169811320755</v>
+      </c>
+      <c r="E783" s="3">
+        <v>1.2075471698113207</v>
+      </c>
+      <c r="F783" s="3">
+        <v>13.32075471698113</v>
+      </c>
+      <c r="G783" s="3">
+        <v>3.3962264150943398</v>
+      </c>
+      <c r="H783" s="3">
+        <v>1.939622641509434</v>
+      </c>
+      <c r="I783" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J783" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>796</v>
+      </c>
+      <c r="B784" s="3">
+        <v>52</v>
+      </c>
+      <c r="C784" s="3">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D784" s="3">
+        <v>11.818181818181818</v>
+      </c>
+      <c r="E784" s="3">
+        <v>10.727272727272727</v>
+      </c>
+      <c r="F784" s="3">
+        <v>0</v>
+      </c>
+      <c r="G784" s="3">
+        <v>0</v>
+      </c>
+      <c r="H784" s="3">
+        <v>0</v>
+      </c>
+      <c r="I784" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J784" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>797</v>
+      </c>
+      <c r="B785" s="3">
+        <v>42</v>
+      </c>
+      <c r="C785" s="3">
+        <v>0</v>
+      </c>
+      <c r="D785" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="E785" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F785" s="3">
+        <v>0</v>
+      </c>
+      <c r="G785" s="3">
+        <v>0</v>
+      </c>
+      <c r="H785" s="3">
+        <v>0</v>
+      </c>
+      <c r="I785" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J785" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>798</v>
+      </c>
+      <c r="B786" s="3">
+        <v>42</v>
+      </c>
+      <c r="C786" s="3">
+        <v>0</v>
+      </c>
+      <c r="D786" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="E786" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F786" s="3">
+        <v>0</v>
+      </c>
+      <c r="G786" s="3">
+        <v>0</v>
+      </c>
+      <c r="H786" s="3">
+        <v>0</v>
+      </c>
+      <c r="I786" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J786" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>799</v>
+      </c>
+      <c r="B787" s="3">
+        <v>42</v>
+      </c>
+      <c r="C787" s="3">
+        <v>0</v>
+      </c>
+      <c r="D787" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="E787" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F787" s="3">
+        <v>0</v>
+      </c>
+      <c r="G787" s="3">
+        <v>0</v>
+      </c>
+      <c r="H787" s="3">
+        <v>0</v>
+      </c>
+      <c r="I787" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J787" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>800</v>
+      </c>
+      <c r="B788" s="3">
+        <v>42</v>
+      </c>
+      <c r="C788" s="3">
+        <v>0</v>
+      </c>
+      <c r="D788" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="E788" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F788" s="3">
+        <v>0</v>
+      </c>
+      <c r="G788" s="3">
+        <v>0</v>
+      </c>
+      <c r="H788" s="3">
+        <v>0</v>
+      </c>
+      <c r="I788" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J788" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>801</v>
+      </c>
+      <c r="B789" s="3">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C789" s="3">
+        <v>0</v>
+      </c>
+      <c r="D789" s="3">
+        <v>0</v>
+      </c>
+      <c r="E789" s="3">
+        <v>0</v>
+      </c>
+      <c r="F789" s="3">
+        <v>0</v>
+      </c>
+      <c r="G789" s="3">
+        <v>0</v>
+      </c>
+      <c r="H789" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I789" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J789" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>802</v>
+      </c>
+      <c r="B790" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C790" s="3">
+        <v>0</v>
+      </c>
+      <c r="D790" s="3">
+        <v>0</v>
+      </c>
+      <c r="E790" s="3">
+        <v>0</v>
+      </c>
+      <c r="F790" s="3">
+        <v>0</v>
+      </c>
+      <c r="G790" s="3">
+        <v>0</v>
+      </c>
+      <c r="H790" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I790" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J790" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>803</v>
+      </c>
+      <c r="B791" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C791" s="3">
+        <v>0</v>
+      </c>
+      <c r="D791" s="3">
+        <v>0</v>
+      </c>
+      <c r="E791" s="3">
+        <v>0</v>
+      </c>
+      <c r="F791" s="3">
+        <v>0</v>
+      </c>
+      <c r="G791" s="3">
+        <v>0</v>
+      </c>
+      <c r="H791" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I791" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J791" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>804</v>
+      </c>
+      <c r="B792" s="3">
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="C792" s="3">
+        <v>0</v>
+      </c>
+      <c r="D792" s="3">
+        <v>0</v>
+      </c>
+      <c r="E792" s="3">
+        <v>0</v>
+      </c>
+      <c r="F792" s="3">
+        <v>0</v>
+      </c>
+      <c r="G792" s="3">
+        <v>0</v>
+      </c>
+      <c r="H792" s="3">
+        <v>7.5066666666666657E-2</v>
+      </c>
+      <c r="I792" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J792" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>805</v>
+      </c>
+      <c r="B793" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C793" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D793" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E793" s="3">
+        <v>0</v>
+      </c>
+      <c r="F793" s="3">
+        <v>0</v>
+      </c>
+      <c r="G793" s="3">
+        <v>0</v>
+      </c>
+      <c r="H793" s="3">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="I793" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J793" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>806</v>
+      </c>
+      <c r="B794" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C794" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D794" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E794" s="3">
+        <v>0</v>
+      </c>
+      <c r="F794" s="3">
+        <v>0</v>
+      </c>
+      <c r="G794" s="3">
+        <v>0</v>
+      </c>
+      <c r="H794" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I794" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J794" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>807</v>
+      </c>
+      <c r="B795" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C795" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D795" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E795" s="3">
+        <v>0</v>
+      </c>
+      <c r="F795" s="3">
+        <v>0</v>
+      </c>
+      <c r="G795" s="3">
+        <v>0</v>
+      </c>
+      <c r="H795" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I795" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J795" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>808</v>
+      </c>
+      <c r="B796" s="3">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="C796" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D796" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E796" s="3">
+        <v>0</v>
+      </c>
+      <c r="F796" s="3">
+        <v>0</v>
+      </c>
+      <c r="G796" s="3">
+        <v>0</v>
+      </c>
+      <c r="H796" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I796" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J796" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>809</v>
+      </c>
+      <c r="B797" s="3">
+        <v>19</v>
+      </c>
+      <c r="C797" s="3">
+        <v>0</v>
+      </c>
+      <c r="D797" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E797" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F797" s="3">
+        <v>0</v>
+      </c>
+      <c r="G797" s="3">
+        <v>0</v>
+      </c>
+      <c r="H797" s="3">
+        <v>0</v>
+      </c>
+      <c r="I797" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J797" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>810</v>
+      </c>
+      <c r="B798" s="3">
+        <v>19</v>
+      </c>
+      <c r="C798" s="3">
+        <v>0</v>
+      </c>
+      <c r="D798" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E798" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F798" s="3">
+        <v>0</v>
+      </c>
+      <c r="G798" s="3">
+        <v>0</v>
+      </c>
+      <c r="H798" s="3">
+        <v>0</v>
+      </c>
+      <c r="I798" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J798" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>811</v>
+      </c>
+      <c r="B799" s="3">
+        <v>19</v>
+      </c>
+      <c r="C799" s="3">
+        <v>0</v>
+      </c>
+      <c r="D799" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E799" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F799" s="3">
+        <v>0</v>
+      </c>
+      <c r="G799" s="3">
+        <v>0</v>
+      </c>
+      <c r="H799" s="3">
+        <v>0</v>
+      </c>
+      <c r="I799" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J799" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>812</v>
+      </c>
+      <c r="B800" s="3">
+        <v>19</v>
+      </c>
+      <c r="C800" s="3">
+        <v>0</v>
+      </c>
+      <c r="D800" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E800" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F800" s="3">
+        <v>0</v>
+      </c>
+      <c r="G800" s="3">
+        <v>0</v>
+      </c>
+      <c r="H800" s="3">
+        <v>0</v>
+      </c>
+      <c r="I800" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J800" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>813</v>
+      </c>
+      <c r="B801" s="3">
+        <v>44</v>
+      </c>
+      <c r="C801" s="3">
+        <v>0</v>
+      </c>
+      <c r="D801" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="E801" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="F801" s="3">
+        <v>0</v>
+      </c>
+      <c r="G801" s="3">
+        <v>0</v>
+      </c>
+      <c r="H801" s="3">
+        <v>0</v>
+      </c>
+      <c r="I801" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J801" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>814</v>
+      </c>
+      <c r="B802" s="3">
+        <v>44</v>
+      </c>
+      <c r="C802" s="3">
+        <v>0</v>
+      </c>
+      <c r="D802" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="E802" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="F802" s="3">
+        <v>0</v>
+      </c>
+      <c r="G802" s="3">
+        <v>0</v>
+      </c>
+      <c r="H802" s="3">
+        <v>0</v>
+      </c>
+      <c r="I802" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J802" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>815</v>
+      </c>
+      <c r="B803" s="3">
+        <v>44</v>
+      </c>
+      <c r="C803" s="3">
+        <v>0</v>
+      </c>
+      <c r="D803" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="E803" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="F803" s="3">
+        <v>0</v>
+      </c>
+      <c r="G803" s="3">
+        <v>0</v>
+      </c>
+      <c r="H803" s="3">
+        <v>0</v>
+      </c>
+      <c r="I803" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J803" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>816</v>
+      </c>
+      <c r="B804" s="3">
+        <v>44</v>
+      </c>
+      <c r="C804" s="3">
+        <v>0</v>
+      </c>
+      <c r="D804" s="3">
+        <v>10.706666666666667</v>
+      </c>
+      <c r="E804" s="3">
+        <v>10.706666666666667</v>
+      </c>
+      <c r="F804" s="3">
+        <v>0</v>
+      </c>
+      <c r="G804" s="3">
+        <v>0</v>
+      </c>
+      <c r="H804" s="3">
+        <v>0</v>
+      </c>
+      <c r="I804" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J804" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>817</v>
+      </c>
+      <c r="B805" s="3">
+        <v>52</v>
+      </c>
+      <c r="C805" s="3">
+        <v>0</v>
+      </c>
+      <c r="D805" s="3">
+        <v>12.900000000000002</v>
+      </c>
+      <c r="E805" s="3">
+        <v>12.900000000000002</v>
+      </c>
+      <c r="F805" s="3">
+        <v>0</v>
+      </c>
+      <c r="G805" s="3">
+        <v>0</v>
+      </c>
+      <c r="H805" s="3">
+        <v>0</v>
+      </c>
+      <c r="I805" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J805" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>818</v>
+      </c>
+      <c r="B806" s="3">
+        <v>52</v>
+      </c>
+      <c r="C806" s="3">
+        <v>0</v>
+      </c>
+      <c r="D806" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="E806" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="F806" s="3">
+        <v>0</v>
+      </c>
+      <c r="G806" s="3">
+        <v>0</v>
+      </c>
+      <c r="H806" s="3">
+        <v>0</v>
+      </c>
+      <c r="I806" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J806" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>819</v>
+      </c>
+      <c r="B807" s="3">
+        <v>52</v>
+      </c>
+      <c r="C807" s="3">
+        <v>0</v>
+      </c>
+      <c r="D807" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="E807" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="F807" s="3">
+        <v>0</v>
+      </c>
+      <c r="G807" s="3">
+        <v>0</v>
+      </c>
+      <c r="H807" s="3">
+        <v>0</v>
+      </c>
+      <c r="I807" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J807" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>820</v>
+      </c>
+      <c r="B808" s="3">
+        <v>52</v>
+      </c>
+      <c r="C808" s="3">
+        <v>0</v>
+      </c>
+      <c r="D808" s="3">
+        <v>12.906666666666666</v>
+      </c>
+      <c r="E808" s="3">
+        <v>12.906666666666666</v>
+      </c>
+      <c r="F808" s="3">
+        <v>0</v>
+      </c>
+      <c r="G808" s="3">
+        <v>0</v>
+      </c>
+      <c r="H808" s="3">
+        <v>0</v>
+      </c>
+      <c r="I808" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J808" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>821</v>
+      </c>
+      <c r="B809" s="3">
+        <v>32.780487804878049</v>
+      </c>
+      <c r="C809" s="3">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="D809" s="3">
+        <v>7.6097560975609753</v>
+      </c>
+      <c r="E809" s="3">
+        <v>7.2195121951219514</v>
+      </c>
+      <c r="F809" s="3">
+        <v>0</v>
+      </c>
+      <c r="G809" s="3">
+        <v>0</v>
+      </c>
+      <c r="H809" s="3">
+        <v>4.8780487804878049E-3</v>
+      </c>
+      <c r="I809" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J809" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>822</v>
+      </c>
+      <c r="B810" s="3">
+        <v>35.94202898550725</v>
+      </c>
+      <c r="C810" s="3">
+        <v>1.5942028985507248</v>
+      </c>
+      <c r="D810" s="3">
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="E810" s="3">
+        <v>1.5942028985507248</v>
+      </c>
+      <c r="F810" s="3">
+        <v>0.57971014492753625</v>
+      </c>
+      <c r="G810" s="3">
+        <v>0.14492753623188406</v>
+      </c>
+      <c r="H810" s="3">
+        <v>0.17826086956521739</v>
+      </c>
+      <c r="I810" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J810" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A811" t="s">
+        <v>823</v>
+      </c>
+      <c r="B811" s="3">
+        <v>23.314285714285713</v>
+      </c>
+      <c r="C811" s="3">
+        <v>1.3142857142857141</v>
+      </c>
+      <c r="D811" s="3">
+        <v>4.1714285714285717</v>
+      </c>
+      <c r="E811" s="3">
+        <v>1.8285714285714285</v>
+      </c>
+      <c r="F811" s="3">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G811" s="3">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="H811" s="3">
+        <v>0.11142857142857143</v>
+      </c>
+      <c r="I811" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J811" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A812" t="s">
+        <v>824</v>
+      </c>
+      <c r="B812" s="3">
+        <v>91.406844106463879</v>
+      </c>
+      <c r="C812" s="3">
+        <v>6.5019011406844118</v>
+      </c>
+      <c r="D812" s="3">
+        <v>6.5779467680608361</v>
+      </c>
+      <c r="E812" s="3">
+        <v>1.520912547528517</v>
+      </c>
+      <c r="F812" s="3">
+        <v>4.334600760456274</v>
+      </c>
+      <c r="G812" s="3">
+        <v>0.98859315589353614</v>
+      </c>
+      <c r="H812" s="3">
+        <v>0.63650190114068439</v>
+      </c>
+      <c r="I812" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J812" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A813" t="s">
+        <v>825</v>
+      </c>
+      <c r="B813" s="3">
+        <v>140.97744360902254</v>
+      </c>
+      <c r="C813" s="3">
+        <v>9.6240601503759393</v>
+      </c>
+      <c r="D813" s="3">
+        <v>6.8421052631578947</v>
+      </c>
+      <c r="E813" s="3">
+        <v>1.9172932330827066</v>
+      </c>
+      <c r="F813" s="3">
+        <v>8.458646616541353</v>
+      </c>
+      <c r="G813" s="3">
+        <v>3.3834586466165413</v>
+      </c>
+      <c r="H813" s="3">
+        <v>0.79210526315789476</v>
+      </c>
+      <c r="I813" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J813" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A814" t="s">
+        <v>826</v>
+      </c>
+      <c r="B814" s="3">
+        <v>182.94117647058823</v>
+      </c>
+      <c r="C814" s="3">
+        <v>3.0588235294117645</v>
+      </c>
+      <c r="D814" s="3">
+        <v>28.823529411764707</v>
+      </c>
+      <c r="E814" s="3">
+        <v>24.176470588235293</v>
+      </c>
+      <c r="F814" s="3">
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="G814" s="3">
+        <v>3.8823529411764706</v>
+      </c>
+      <c r="H814" s="3">
+        <v>0.3158823529411765</v>
+      </c>
+      <c r="I814" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J814" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A815" t="s">
+        <v>827</v>
+      </c>
+      <c r="B815" s="3">
+        <v>201.5</v>
+      </c>
+      <c r="C815" s="3">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D815" s="3">
+        <v>30.722222222222221</v>
+      </c>
+      <c r="E815" s="3">
+        <v>26.444444444444443</v>
+      </c>
+      <c r="F815" s="3">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="G815" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H815" s="3">
+        <v>0.32222222222222219</v>
+      </c>
+      <c r="I815" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J815" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A816" t="s">
+        <v>828</v>
+      </c>
+      <c r="B816" s="3">
+        <v>172.5</v>
+      </c>
+      <c r="C816" s="3">
+        <v>3.125</v>
+      </c>
+      <c r="D816" s="3">
+        <v>25.125000000000004</v>
+      </c>
+      <c r="E816" s="3">
+        <v>21.875</v>
+      </c>
+      <c r="F816" s="3">
+        <v>6.5625</v>
+      </c>
+      <c r="G816" s="3">
+        <v>3.375</v>
+      </c>
+      <c r="H816" s="3">
+        <v>0.35374999999999995</v>
+      </c>
+      <c r="I816" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J816" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A817" t="s">
+        <v>829</v>
+      </c>
+      <c r="B817" s="3">
+        <v>431</v>
+      </c>
+      <c r="C817" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D817" s="3">
+        <v>47</v>
+      </c>
+      <c r="E817" s="3">
+        <v>37</v>
+      </c>
+      <c r="F817" s="3">
+        <v>22.999999999999996</v>
+      </c>
+      <c r="G817" s="3">
+        <v>15</v>
+      </c>
+      <c r="H817" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I817" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J817" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A818" t="s">
+        <v>830</v>
+      </c>
+      <c r="B818" s="3">
+        <v>302</v>
+      </c>
+      <c r="C818" s="3">
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="D818" s="3">
+        <v>36.285714285714285</v>
+      </c>
+      <c r="E818" s="3">
+        <v>29.714285714285715</v>
+      </c>
+      <c r="F818" s="3">
+        <v>14.642857142857142</v>
+      </c>
+      <c r="G818" s="3">
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="H818" s="3">
+        <v>0.19571428571428573</v>
+      </c>
+      <c r="I818" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J818" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A819" t="s">
+        <v>104</v>
+      </c>
+      <c r="B819" s="3">
+        <v>453</v>
+      </c>
+      <c r="C819" s="3">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D819" s="3">
+        <v>53.833333333333329</v>
+      </c>
+      <c r="E819" s="3">
+        <v>25.833333333333332</v>
+      </c>
+      <c r="F819" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="G819" s="3">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="H819" s="3">
+        <v>1</v>
+      </c>
+      <c r="I819" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J819" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A820" t="s">
+        <v>831</v>
+      </c>
+      <c r="B820" s="3">
+        <v>305</v>
+      </c>
+      <c r="C820" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="D820" s="3">
+        <v>36.25</v>
+      </c>
+      <c r="E820" s="3">
+        <v>14.125</v>
+      </c>
+      <c r="F820" s="3">
+        <v>14.25</v>
+      </c>
+      <c r="G820" s="3">
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="H820" s="3">
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="I820" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J820" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A821" t="s">
+        <v>832</v>
+      </c>
+      <c r="B821" s="3">
+        <v>86</v>
+      </c>
+      <c r="C821" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="D821" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="E821" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="F821" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G821" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="H821" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I821" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J821" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A822" t="s">
+        <v>833</v>
+      </c>
+      <c r="B822" s="3">
+        <v>182</v>
+      </c>
+      <c r="C822" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D822" s="3">
+        <v>27</v>
+      </c>
+      <c r="E822" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="F822" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G822" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H822" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I822" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J822" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A823" t="s">
+        <v>834</v>
+      </c>
+      <c r="B823" s="3">
+        <v>117.09090909090911</v>
+      </c>
+      <c r="C823" s="3">
+        <v>6.7272727272727275</v>
+      </c>
+      <c r="D823" s="3">
+        <v>14.909090909090907</v>
+      </c>
+      <c r="E823" s="3">
+        <v>14.545454545454545</v>
+      </c>
+      <c r="F823" s="3">
+        <v>3.4545454545454546</v>
+      </c>
+      <c r="G823" s="3">
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="H823" s="3">
+        <v>8.7272727272727266E-2</v>
+      </c>
+      <c r="I823" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J823" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A824" t="s">
+        <v>835</v>
+      </c>
+      <c r="B824" s="3">
+        <v>130</v>
+      </c>
+      <c r="C824" s="3">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="D824" s="3">
+        <v>22</v>
+      </c>
+      <c r="E824" s="3">
+        <v>20</v>
+      </c>
+      <c r="F824" s="3">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="G824" s="3">
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="H824" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="I824" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J824" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A825" t="s">
+        <v>836</v>
+      </c>
+      <c r="B825" s="3">
+        <v>146.96774193548387</v>
+      </c>
+      <c r="C825" s="3">
+        <v>2.4516129032258065</v>
+      </c>
+      <c r="D825" s="3">
+        <v>27.225806451612904</v>
+      </c>
+      <c r="E825" s="3">
+        <v>25.419354838709676</v>
+      </c>
+      <c r="F825" s="3">
+        <v>3.1612903225806455</v>
+      </c>
+      <c r="G825" s="3">
+        <v>2.064516129032258</v>
+      </c>
+      <c r="H825" s="3">
+        <v>0.32580645161290323</v>
+      </c>
+      <c r="I825" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J825" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A826" t="s">
+        <v>837</v>
+      </c>
+      <c r="B826" s="3">
+        <v>155.5</v>
+      </c>
+      <c r="C826" s="3">
+        <v>2.625</v>
+      </c>
+      <c r="D826" s="3">
+        <v>25.6875</v>
+      </c>
+      <c r="E826" s="3">
+        <v>23.6875</v>
+      </c>
+      <c r="F826" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="G826" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H826" s="3">
+        <v>0.33437499999999998</v>
+      </c>
+      <c r="I826" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J826" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A827" t="s">
+        <v>838</v>
+      </c>
+      <c r="B827" s="3">
+        <v>135.74193548387098</v>
+      </c>
+      <c r="C827" s="3">
+        <v>2.5161290322580645</v>
+      </c>
+      <c r="D827" s="3">
+        <v>24.322580645161292</v>
+      </c>
+      <c r="E827" s="3">
+        <v>22.322580645161292</v>
+      </c>
+      <c r="F827" s="3">
+        <v>3.1612903225806455</v>
+      </c>
+      <c r="G827" s="3">
+        <v>2.064516129032258</v>
+      </c>
+      <c r="H827" s="3">
+        <v>0.3167741935483871</v>
+      </c>
+      <c r="I827" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J827" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A828" t="s">
+        <v>839</v>
+      </c>
+      <c r="B828" s="3">
+        <v>385.06666666666666</v>
+      </c>
+      <c r="C828" s="3">
+        <v>5.0666666666666664</v>
+      </c>
+      <c r="D828" s="3">
+        <v>40</v>
+      </c>
+      <c r="E828" s="3">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="F828" s="3">
+        <v>22</v>
+      </c>
+      <c r="G828" s="3">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="H828" s="3">
+        <v>0.65066666666666662</v>
+      </c>
+      <c r="I828" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J828" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A829" t="s">
+        <v>840</v>
+      </c>
+      <c r="B829" s="3">
+        <v>170.68119891008175</v>
+      </c>
+      <c r="C829" s="3">
+        <v>2.9427792915531334</v>
+      </c>
+      <c r="D829" s="3">
+        <v>25.095367847411445</v>
+      </c>
+      <c r="E829" s="3">
+        <v>21.253405994550409</v>
+      </c>
+      <c r="F829" s="3">
+        <v>6.2670299727520433</v>
+      </c>
+      <c r="G829" s="3">
+        <v>3.9509536784741144</v>
+      </c>
+      <c r="H829" s="3">
+        <v>0.31880108991825612</v>
+      </c>
+      <c r="I829" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J829" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A830" t="s">
+        <v>841</v>
+      </c>
+      <c r="B830" s="3">
+        <v>183.02267002518892</v>
+      </c>
+      <c r="C830" s="3">
+        <v>2.8967254408060454</v>
+      </c>
+      <c r="D830" s="3">
+        <v>27.103274559193956</v>
+      </c>
+      <c r="E830" s="3">
+        <v>23.375314861460957</v>
+      </c>
+      <c r="F830" s="3">
+        <v>6.8261964735516374</v>
+      </c>
+      <c r="G830" s="3">
+        <v>4.5340050377833752</v>
+      </c>
+      <c r="H830" s="3">
+        <v>0.31158690176322423</v>
+      </c>
+      <c r="I830" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J830" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A831" t="s">
+        <v>842</v>
+      </c>
+      <c r="B831" s="3">
+        <v>173.9493670886076</v>
+      </c>
+      <c r="C831" s="3">
+        <v>3.0126582278481013</v>
+      </c>
+      <c r="D831" s="3">
+        <v>27.544303797468356</v>
+      </c>
+      <c r="E831" s="3">
+        <v>22.050632911392405</v>
+      </c>
+      <c r="F831" s="3">
+        <v>5.5443037974683547</v>
+      </c>
+      <c r="G831" s="3">
+        <v>2.8860759493670884</v>
+      </c>
+      <c r="H831" s="3">
+        <v>0.37873417721518987</v>
+      </c>
+      <c r="I831" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J831" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A832" t="s">
+        <v>843</v>
+      </c>
+      <c r="B832" s="3">
+        <v>143.00760678759508</v>
+      </c>
+      <c r="C832" s="3">
+        <v>2.6623756582796956</v>
+      </c>
+      <c r="D832" s="3">
+        <v>23.90286717378584</v>
+      </c>
+      <c r="E832" s="3">
+        <v>21.884142773551783</v>
+      </c>
+      <c r="F832" s="3">
+        <v>4.1544763019309539</v>
+      </c>
+      <c r="G832" s="3">
+        <v>2.896430661205383</v>
+      </c>
+      <c r="H832" s="3">
+        <v>0.34201287302516092</v>
+      </c>
+      <c r="I832" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J832" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A833" t="s">
+        <v>844</v>
+      </c>
+      <c r="B833" s="3">
+        <v>135.36931818181819</v>
+      </c>
+      <c r="C833" s="3">
+        <v>2.5568181818181817</v>
+      </c>
+      <c r="D833" s="3">
+        <v>24.176136363636363</v>
+      </c>
+      <c r="E833" s="3">
+        <v>22.21590909090909</v>
+      </c>
+      <c r="F833" s="3">
+        <v>3.2102272727272729</v>
+      </c>
+      <c r="G833" s="3">
+        <v>2.1022727272727271</v>
+      </c>
+      <c r="H833" s="3">
+        <v>0.31846590909090905</v>
+      </c>
+      <c r="I833" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J833" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A834" t="s">
+        <v>845</v>
+      </c>
+      <c r="B834" s="3">
+        <v>130</v>
+      </c>
+      <c r="C834" s="3">
+        <v>2.6875</v>
+      </c>
+      <c r="D834" s="3">
+        <v>22.000000000000004</v>
+      </c>
+      <c r="E834" s="3">
+        <v>20</v>
+      </c>
+      <c r="F834" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G834" s="3">
+        <v>2.3125</v>
+      </c>
+      <c r="H834" s="3">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I834" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J834" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A835" t="s">
+        <v>846</v>
+      </c>
+      <c r="B835" s="3">
+        <v>349</v>
+      </c>
+      <c r="C835" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="D835" s="3">
+        <v>33</v>
+      </c>
+      <c r="E835" s="3">
+        <v>26</v>
+      </c>
+      <c r="F835" s="3">
+        <v>23</v>
+      </c>
+      <c r="G835" s="3">
+        <v>15</v>
+      </c>
+      <c r="H835" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I835" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J835" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A836" t="s">
+        <v>847</v>
+      </c>
+      <c r="B836" s="3">
+        <v>374</v>
+      </c>
+      <c r="C836" s="3">
+        <v>5</v>
+      </c>
+      <c r="D836" s="3">
+        <v>41.999999999999993</v>
+      </c>
+      <c r="E836" s="3">
+        <v>26</v>
+      </c>
+      <c r="F836" s="3">
+        <v>20.333333333333332</v>
+      </c>
+      <c r="G836" s="3">
+        <v>5.1111111111111107</v>
+      </c>
+      <c r="H836" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I836" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J836" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A837" t="s">
+        <v>848</v>
+      </c>
+      <c r="B837" s="3">
+        <v>323.06666666666666</v>
+      </c>
+      <c r="C837" s="3">
+        <v>24.133333333333336</v>
+      </c>
+      <c r="D837" s="3">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E837" s="3">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F837" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G837" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H837" s="3">
+        <v>0.19066666666666665</v>
+      </c>
+      <c r="I837" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J837" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A838" t="s">
+        <v>849</v>
+      </c>
+      <c r="B838" s="3">
+        <v>280</v>
+      </c>
+      <c r="C838" s="3">
+        <v>24.262295081967213</v>
+      </c>
+      <c r="D838" s="3">
+        <v>0</v>
+      </c>
+      <c r="E838" s="3">
+        <v>0</v>
+      </c>
+      <c r="F838" s="3">
+        <v>20.327868852459016</v>
+      </c>
+      <c r="G838" s="3">
+        <v>9.1803278688524586</v>
+      </c>
+      <c r="H838" s="3">
+        <v>0.19016393442622953</v>
+      </c>
+      <c r="I838" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J838" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A839" t="s">
+        <v>850</v>
+      </c>
+      <c r="B839" s="3">
+        <v>330.89430894308947</v>
+      </c>
+      <c r="C839" s="3">
+        <v>18.292682926829269</v>
+      </c>
+      <c r="D839" s="3">
+        <v>7.3170731707317067</v>
+      </c>
+      <c r="E839" s="3">
+        <v>3.6585365853658534</v>
+      </c>
+      <c r="F839" s="3">
+        <v>25.609756097560975</v>
+      </c>
+      <c r="G839" s="3">
+        <v>15.040650406504064</v>
+      </c>
+      <c r="H839" s="3">
+        <v>4.426829268292682</v>
+      </c>
+      <c r="I839" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J839" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A840" t="s">
+        <v>851</v>
+      </c>
+      <c r="B840" s="3">
+        <v>14.743589743589743</v>
+      </c>
+      <c r="C840" s="3">
+        <v>0.64102564102564108</v>
+      </c>
+      <c r="D840" s="3">
+        <v>3.2051282051282053</v>
+      </c>
+      <c r="E840" s="3">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="F840" s="3">
+        <v>0</v>
+      </c>
+      <c r="G840" s="3">
+        <v>0</v>
+      </c>
+      <c r="H840" s="3">
+        <v>3.6025641025641026</v>
+      </c>
+      <c r="I840" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J840" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A841" t="s">
+        <v>852</v>
+      </c>
+      <c r="B841" s="3">
+        <v>610</v>
+      </c>
+      <c r="C841" s="3">
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="D841" s="3">
+        <v>44.285714285714285</v>
+      </c>
+      <c r="E841" s="3">
+        <v>15</v>
+      </c>
+      <c r="F841" s="3">
+        <v>45.714285714285715</v>
+      </c>
+      <c r="G841" s="3">
+        <v>22.142857142857142</v>
+      </c>
+      <c r="H841" s="3">
+        <v>1.1285714285714286</v>
+      </c>
+      <c r="I841" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J841" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A842" t="s">
+        <v>853</v>
+      </c>
+      <c r="B842" s="3">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="C842" s="3">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="D842" s="3">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="E842" s="3">
+        <v>5</v>
+      </c>
+      <c r="F842" s="3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G842" s="3">
+        <v>0</v>
+      </c>
+      <c r="H842" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I842" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J842" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>854</v>
+      </c>
+      <c r="B843" s="3">
+        <v>419.35483870967738</v>
+      </c>
+      <c r="C843" s="3">
+        <v>39.516129032258071</v>
+      </c>
+      <c r="D843" s="3">
+        <v>4.032258064516129</v>
+      </c>
+      <c r="E843" s="3">
+        <v>4.032258064516129</v>
+      </c>
+      <c r="F843" s="3">
+        <v>27.419354838709676</v>
+      </c>
+      <c r="G843" s="3">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="H843" s="3">
+        <v>4.008064516129032</v>
+      </c>
+      <c r="I843" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J843" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A844" t="s">
+        <v>855</v>
+      </c>
+      <c r="B844" s="3">
+        <v>21.071428571428573</v>
+      </c>
+      <c r="C844" s="3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D844" s="3">
+        <v>4.6428571428571432</v>
+      </c>
+      <c r="E844" s="3">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="F844" s="3">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="G844" s="3">
+        <v>0</v>
+      </c>
+      <c r="H844" s="3">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="I844" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J844" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A845" t="s">
+        <v>856</v>
+      </c>
+      <c r="B845" s="3">
+        <v>13.80952380952381</v>
+      </c>
+      <c r="C845" s="3">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="D845" s="3">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="E845" s="3">
+        <v>1.9047619047619047</v>
+      </c>
+      <c r="F845" s="3">
+        <v>0</v>
+      </c>
+      <c r="G845" s="3">
+        <v>0</v>
+      </c>
+      <c r="H845" s="3">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="I845" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J845" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A846" t="s">
+        <v>141</v>
+      </c>
+      <c r="B846" s="3">
+        <v>597.14285714285711</v>
+      </c>
+      <c r="C846" s="3">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="D846" s="3">
+        <v>1.9047619047619047</v>
+      </c>
+      <c r="E846" s="3">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F846" s="3">
+        <v>65.238095238095241</v>
+      </c>
+      <c r="G846" s="3">
+        <v>5.238095238095239</v>
+      </c>
+      <c r="H846" s="3">
+        <v>1.7523809523809522</v>
+      </c>
+      <c r="I846" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J846" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A847" t="s">
+        <v>187</v>
+      </c>
+      <c r="B847" s="3">
+        <v>156.07142857142858</v>
+      </c>
+      <c r="C847" s="3">
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="D847" s="3">
+        <v>36.071428571428569</v>
+      </c>
+      <c r="E847" s="3">
+        <v>30</v>
+      </c>
+      <c r="F847" s="3">
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="G847" s="3">
+        <v>0</v>
+      </c>
+      <c r="H847" s="3">
+        <v>2.2607142857142857</v>
+      </c>
+      <c r="I847" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J847" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A848" t="s">
+        <v>857</v>
+      </c>
+      <c r="B848" s="3">
+        <v>318</v>
+      </c>
+      <c r="C848" s="3">
+        <v>2</v>
+      </c>
+      <c r="D848" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="E848" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="F848" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="G848" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H848" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I848" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J848" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A849" t="s">
+        <v>858</v>
+      </c>
+      <c r="B849" s="3">
+        <v>209.14285714285714</v>
+      </c>
+      <c r="C849" s="3">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="D849" s="3">
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="E849" s="3">
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="F849" s="3">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="G849" s="3">
+        <v>10.285714285714286</v>
+      </c>
+      <c r="H849" s="3">
+        <v>2.7514285714285713</v>
+      </c>
+      <c r="I849" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J849" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>859</v>
+      </c>
+      <c r="B850" s="3">
+        <v>138</v>
+      </c>
+      <c r="C850" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D850" s="3">
+        <v>32</v>
+      </c>
+      <c r="E850" s="3">
+        <v>28</v>
+      </c>
+      <c r="F850" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G850" s="3">
+        <v>8</v>
+      </c>
+      <c r="H850" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I850" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J850" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>860</v>
+      </c>
+      <c r="B851" s="3">
+        <v>408</v>
+      </c>
+      <c r="C851" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D851" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E851" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="F851" s="3">
+        <v>42</v>
+      </c>
+      <c r="G851" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="H851" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I851" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J851" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A852" t="s">
+        <v>861</v>
+      </c>
+      <c r="B852" s="3">
+        <v>101.99999999999999</v>
+      </c>
+      <c r="C852" s="3">
+        <v>1</v>
+      </c>
+      <c r="D852" s="3">
+        <v>24</v>
+      </c>
+      <c r="E852" s="3">
+        <v>24</v>
+      </c>
+      <c r="F852" s="3">
+        <v>0</v>
+      </c>
+      <c r="G852" s="3">
+        <v>0</v>
+      </c>
+      <c r="H852" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="I852" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J852" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>862</v>
+      </c>
+      <c r="B853" s="3">
+        <v>334</v>
+      </c>
+      <c r="C853" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D853" s="3">
+        <v>51.5</v>
+      </c>
+      <c r="E853" s="3">
+        <v>49.5</v>
+      </c>
+      <c r="F853" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="G853" s="3">
+        <v>11.499999999999998</v>
+      </c>
+      <c r="H853" s="3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I853" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J853" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A854" t="s">
+        <v>863</v>
+      </c>
+      <c r="B854" s="3">
+        <v>272</v>
+      </c>
+      <c r="C854" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D854" s="3">
+        <v>67</v>
+      </c>
+      <c r="E854" s="3">
+        <v>67</v>
+      </c>
+      <c r="F854" s="3">
+        <v>0</v>
+      </c>
+      <c r="G854" s="3">
+        <v>0</v>
+      </c>
+      <c r="H854" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="I854" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J854" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>864</v>
+      </c>
+      <c r="B855" s="3">
+        <v>188.99999999999997</v>
+      </c>
+      <c r="C855" s="3">
+        <v>1</v>
+      </c>
+      <c r="D855" s="3">
+        <v>45.999999999999993</v>
+      </c>
+      <c r="E855" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="F855" s="3">
+        <v>0</v>
+      </c>
+      <c r="G855" s="3">
+        <v>0</v>
+      </c>
+      <c r="H855" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I855" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J855" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="I1:I718" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
